--- a/data/trans_dic/P12_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,18; 34,27</t>
+          <t>27,98; 33,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,69; 30,89</t>
+          <t>24,57; 30,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,86; 32,15</t>
+          <t>25,54; 32,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,97; 32,13</t>
+          <t>25,32; 32,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,59; 44,29</t>
+          <t>38,87; 44,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,89; 38,31</t>
+          <t>33,28; 38,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,62; 41,27</t>
+          <t>35,2; 41,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,83; 38,27</t>
+          <t>32,62; 38,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,72; 38,66</t>
+          <t>34,82; 38,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,07; 34,39</t>
+          <t>30,38; 34,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,02; 36,57</t>
+          <t>31,69; 36,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,52; 35,14</t>
+          <t>30,62; 35,1</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,37; 15,76</t>
+          <t>12,45; 15,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,77; 15,05</t>
+          <t>11,67; 14,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,36; 13,22</t>
+          <t>10,53; 13,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,4; 15,66</t>
+          <t>12,36; 15,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,21; 23,49</t>
+          <t>19,46; 23,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,04; 21,91</t>
+          <t>17,99; 21,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 18,34</t>
+          <t>14,87; 18,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,05; 20,64</t>
+          <t>16,02; 20,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,21; 18,86</t>
+          <t>16,28; 18,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,2; 17,7</t>
+          <t>15,16; 17,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,06; 15,29</t>
+          <t>13,09; 15,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,96; 17,73</t>
+          <t>14,96; 17,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,24; 18,54</t>
+          <t>12,4; 18,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,23; 17,28</t>
+          <t>10,39; 17,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 14,85</t>
+          <t>9,19; 14,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,63; 19,34</t>
+          <t>13,65; 19,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,68; 28,89</t>
+          <t>20,86; 28,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,53; 20,9</t>
+          <t>13,57; 21,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 17,85</t>
+          <t>11,89; 17,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,43; 21,68</t>
+          <t>16,44; 21,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,39; 22,38</t>
+          <t>17,01; 21,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 17,97</t>
+          <t>12,71; 17,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,1; 15,19</t>
+          <t>11,23; 15,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,93; 19,84</t>
+          <t>15,79; 19,81</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 20,81</t>
+          <t>18,15; 21,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 18,79</t>
+          <t>15,91; 18,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,76</t>
+          <t>14,43; 16,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,36; 18,29</t>
+          <t>15,48; 18,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,22; 31,29</t>
+          <t>28,04; 31,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,85; 26,95</t>
+          <t>23,9; 26,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,86; 23,73</t>
+          <t>20,91; 23,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,31; 23,99</t>
+          <t>20,14; 23,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,63; 25,77</t>
+          <t>23,6; 25,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 22,48</t>
+          <t>20,46; 22,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,12; 20,05</t>
+          <t>18,07; 20,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,59; 20,82</t>
+          <t>18,71; 20,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,98; 33,98</t>
+          <t>28,17; 33,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,57; 30,58</t>
+          <t>24,63; 30,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,54; 32,22</t>
+          <t>25,41; 32,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,87; 44,17</t>
+          <t>39,06; 44,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,28; 38,53</t>
+          <t>33,01; 38,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,2; 41,31</t>
+          <t>34,93; 41,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,82; 38,95</t>
+          <t>34,74; 38,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,38; 34,31</t>
+          <t>30,12; 34,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,69; 36,45</t>
+          <t>31,83; 36,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,45; 15,81</t>
+          <t>12,22; 15,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 14,75</t>
+          <t>11,69; 14,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,53; 13,33</t>
+          <t>10,54; 13,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,46; 23,61</t>
+          <t>19,5; 23,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,99; 21,69</t>
+          <t>18,06; 21,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,87; 18,27</t>
+          <t>14,83; 18,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,83</t>
+          <t>16,25; 18,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,16; 17,77</t>
+          <t>15,08; 17,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,09; 15,36</t>
+          <t>13,07; 15,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,4; 18,68</t>
+          <t>12,39; 18,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,39; 17,06</t>
+          <t>10,36; 17,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 14,74</t>
+          <t>9,14; 14,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,86; 28,79</t>
+          <t>20,69; 29,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,57; 21,0</t>
+          <t>13,41; 20,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,89; 17,98</t>
+          <t>11,79; 17,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,01; 21,93</t>
+          <t>17,0; 22,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 17,63</t>
+          <t>12,87; 17,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 15,41</t>
+          <t>11,12; 15,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 21,02</t>
+          <t>18,17; 21,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 18,8</t>
+          <t>15,85; 18,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 16,94</t>
+          <t>14,39; 16,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,04; 31,33</t>
+          <t>28,06; 31,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,9; 26,92</t>
+          <t>23,89; 26,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,91; 23,75</t>
+          <t>20,87; 23,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,6; 25,71</t>
+          <t>23,67; 25,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,46; 22,57</t>
+          <t>20,49; 22,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,07; 20,05</t>
+          <t>18,02; 19,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P12_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tuvo mucha energía alguna vez o algunas veces</t>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,17; 33,92</t>
+          <t>28,18; 34,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,63; 30,46</t>
+          <t>24,69; 30,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,41; 32,07</t>
+          <t>25,86; 32,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,32; 32,58</t>
+          <t>24,97; 32,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,06; 44,12</t>
+          <t>38,59; 44,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,01; 38,53</t>
+          <t>32,89; 38,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,93; 41,38</t>
+          <t>34,62; 41,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,62; 38,22</t>
+          <t>32,83; 38,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,74; 38,89</t>
+          <t>34,72; 38,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,12; 34,26</t>
+          <t>30,07; 34,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,83; 36,57</t>
+          <t>32,02; 36,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,62; 35,1</t>
+          <t>30,52; 35,14</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 15,67</t>
+          <t>12,37; 15,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,69; 14,79</t>
+          <t>11,77; 15,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,54; 13,44</t>
+          <t>10,36; 13,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,36; 15,67</t>
+          <t>12,4; 15,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,5; 23,66</t>
+          <t>19,21; 23,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,06; 21,89</t>
+          <t>18,04; 21,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,83; 18,41</t>
+          <t>14,93; 18,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,02; 20,7</t>
+          <t>16,05; 20,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,25; 18,79</t>
+          <t>16,21; 18,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,08; 17,62</t>
+          <t>15,2; 17,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,07; 15,33</t>
+          <t>13,06; 15,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,96; 17,77</t>
+          <t>14,96; 17,73</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,39; 18,78</t>
+          <t>12,24; 18,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,36; 17,32</t>
+          <t>10,23; 17,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,14; 14,6</t>
+          <t>9,11; 14,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,65; 19,68</t>
+          <t>13,63; 19,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,69; 29,19</t>
+          <t>20,68; 28,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,41; 20,46</t>
+          <t>13,53; 20,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 17,97</t>
+          <t>11,87; 17,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,44; 21,75</t>
+          <t>16,43; 21,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 22,2</t>
+          <t>17,39; 22,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,87; 17,86</t>
+          <t>12,88; 17,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,12; 15,29</t>
+          <t>11,1; 15,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 19,81</t>
+          <t>15,93; 19,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,17; 21,02</t>
+          <t>18,06; 20,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,85; 18,64</t>
+          <t>16,01; 18,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,39; 16,93</t>
+          <t>14,32; 16,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 18,25</t>
+          <t>15,36; 18,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,06; 31,26</t>
+          <t>28,22; 31,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,89; 26,95</t>
+          <t>23,85; 26,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,87; 23,85</t>
+          <t>20,86; 23,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,14; 23,96</t>
+          <t>20,31; 23,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,67; 25,72</t>
+          <t>23,63; 25,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,49; 22,49</t>
+          <t>20,41; 22,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 19,97</t>
+          <t>18,12; 20,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,71; 20,92</t>
+          <t>18,59; 20,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>32,76%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,97; 32,13</t>
+          <t>25,18; 32,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,83; 38,27</t>
+          <t>32,96; 38,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,52; 35,14</t>
+          <t>30,52; 35,11</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>15,12%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,4; 15,66</t>
+          <t>8,79; 14,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,05; 20,64</t>
+          <t>12,77; 20,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,96; 17,73</t>
+          <t>12,17; 16,99</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,57%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,63; 19,34</t>
+          <t>13,5; 19,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,43; 21,68</t>
+          <t>16,3; 21,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,93; 19,84</t>
+          <t>15,79; 19,72</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,36; 18,29</t>
+          <t>12,15; 17,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,31; 23,99</t>
+          <t>17,59; 23,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,59; 20,82</t>
+          <t>16,19; 20,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,18; 34,27</t>
+          <t>27,62; 33,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,69; 30,89</t>
+          <t>24,57; 30,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,86; 32,15</t>
+          <t>25,81; 32,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,18; 32,48</t>
+          <t>25,48; 32,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,59; 44,29</t>
+          <t>38,81; 44,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,89; 38,31</t>
+          <t>32,87; 38,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,62; 41,27</t>
+          <t>34,82; 41,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,96; 38,2</t>
+          <t>32,87; 38,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,72; 38,66</t>
+          <t>34,85; 38,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,07; 34,39</t>
+          <t>30,22; 34,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,02; 36,57</t>
+          <t>31,97; 36,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,52; 35,11</t>
+          <t>30,74; 35,12</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,37; 15,76</t>
+          <t>12,21; 15,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,77; 15,05</t>
+          <t>11,6; 14,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,36; 13,22</t>
+          <t>10,44; 13,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 14,83</t>
+          <t>8,85; 14,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,21; 23,49</t>
+          <t>19,15; 23,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,04; 21,91</t>
+          <t>18,02; 22,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 18,34</t>
+          <t>14,81; 18,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,77; 20,14</t>
+          <t>12,67; 20,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,21; 18,86</t>
+          <t>16,38; 18,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,2; 17,7</t>
+          <t>15,14; 17,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,06; 15,29</t>
+          <t>13,05; 15,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,17; 16,99</t>
+          <t>12,36; 17,01</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,24; 18,54</t>
+          <t>12,28; 18,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,23; 17,28</t>
+          <t>10,21; 17,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 14,85</t>
+          <t>9,26; 14,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 19,25</t>
+          <t>13,33; 19,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,68; 28,89</t>
+          <t>20,57; 28,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,53; 20,9</t>
+          <t>13,46; 21,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 17,85</t>
+          <t>11,52; 18,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 21,66</t>
+          <t>16,35; 21,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,39; 22,38</t>
+          <t>17,25; 22,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 17,97</t>
+          <t>12,77; 17,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,1; 15,19</t>
+          <t>11,19; 15,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 19,72</t>
+          <t>15,68; 19,72</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 20,81</t>
+          <t>18,28; 21,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 18,79</t>
+          <t>16,03; 18,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,76</t>
+          <t>14,39; 16,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 17,37</t>
+          <t>12,09; 17,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,22; 31,29</t>
+          <t>27,97; 31,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,85; 26,95</t>
+          <t>24,0; 27,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,86; 23,73</t>
+          <t>20,9; 23,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 23,49</t>
+          <t>16,51; 23,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,63; 25,77</t>
+          <t>23,52; 25,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 22,48</t>
+          <t>20,5; 22,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,12; 20,05</t>
+          <t>18,01; 19,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 20,24</t>
+          <t>16,32; 20,14</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>317982</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>267700</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>216121</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>147565</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>546030</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>476946</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>379106</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>267971</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>864012</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>744646</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>595226</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>415536</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>284935; 345277</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>239218; 296601</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>194474; 241125</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>130970; 167441</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>510394; 581368</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>439464; 510740</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>345591; 412115</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>248030; 289743</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>817769; 910268</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>698271; 790595</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>558091; 642722</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>389898; 445443</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>236537</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>257905</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>246426</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>290854</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>339226</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>347953</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>327844</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>393762</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>575763</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>605858</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>574270</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>684617</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>206782; 265229</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>227676; 288936</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>216528; 275317</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>202648; 340042</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>304029; 372045</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>315922; 386123</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>294002; 361640</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>283296; 454482</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>537344; 621000</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>562633; 650502</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>529551; 623059</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>559352; 769979</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>84699</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>64917</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>63587</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>105374</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>117310</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>77534</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>79866</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>124032</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>142451</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>143454</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>229406</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>67703; 103393</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49021; 81671</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>50639; 81637</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>86190; 124381</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>97993; 137215</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>61573; 97523</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>63125; 99948</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>107720; 140989</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>177283; 230009</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>119714; 165961</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>122509; 169827</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>204700; 257396</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1418</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1375</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2093</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>639218</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>590523</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>526134</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>543793</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1002566</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>902432</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>786816</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>785765</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1641785</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1492955</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1312950</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1329559</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>598980; 689419</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>547858; 639927</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>485401; 569436</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>417053; 607759</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>945138; 1053966</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>851357; 958418</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>736748; 838297</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>602533; 853720</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1565663; 1710947</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1427487; 1566741</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1242908; 1375832</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1158968; 1430459</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>